--- a/similarities/split_global/harmonic_similarity_timestamps_365.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_365.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>isophonics_3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['D/b7', 'G/3', 'D', 'G', 'D/3']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:43.960000', '0:00:47.420000'), ('0:01:07.160000', '0:01:12.400000')]</t>
+          <t>('0:00:23.703945', '0:00:29.172244')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:45.840000', '0:02:00.500000'), ('0:01:56.800000', '0:02:12.880000')]</t>
+          <t>('0:00:11.320000', '0:00:14.760000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=43.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=67.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=23.703945</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=105.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=116.8']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=11.32</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['Bb', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
+          <t>('0:00:08.720000', '0:00:10.480000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:02.880000')]</t>
+          <t>('0:00:26.041712', '0:00:37.106020')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=8.72</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=26.041712</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G#:maj', 'C#:maj', 'G#:maj']]</t>
+          <t>['A:min', 'E:maj/G#', 'A:min', 'A:7/G', 'D:min/F']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:33.814625', '0:00:37.738798')]</t>
+          <t>('0:00:11.700000', '0:00:23.040000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:09.640000', '0:00:11.380000')]</t>
+          <t>('0:00:10.760000', '0:00:17.360000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=33.814625']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=9.64']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'F'], ['C', 'F', 'C']]</t>
+          <t>['C:min', 'F:min/5', 'C:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db'], ['Ab', 'Db', 'Ab']]</t>
+          <t>['F:min', 'A#:min/F', 'F:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:33.724965', '0:00:54.715804'), ('0:01:04.514625', '0:01:27.246961')]</t>
+          <t>('0:00:17.357000', '0:00:22.981000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:05.160000', '0:02:09.590000'), ('0:02:03.030000', '0:02:09.120000')]</t>
+          <t>('0:00:02.360000', '0:00:05.680000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=33.724965', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=17.357</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=125.16', 'https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=2.36</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
+          <t>['A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:22.040000', '0:00:28.660000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:00.761383', '0:01:09.294716')]</t>
+          <t>('0:01:38.020000', '0:01:50.760000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=22.04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=98.02</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:16.800000', '0:00:19.040000')]</t>
+          <t>('0:01:28.760000', '0:01:38.300000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:07.600000', '0:00:17.160000')]</t>
+          <t>('0:00:13.080000', '0:00:19.340000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=7.6']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['Db', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['G#/C', 'D#:7/A#', 'G#/C']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.500000')]</t>
+          <t>('0:00:59.730000', '0:01:03.930000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:48.480000', '0:00:50.100000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=59.73</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=48.48</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>jaah_20</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['Eb', 'F:min', 'Bb:7', 'Eb', 'F:min', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:00:06.260000', '0:00:21.040000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:09.162102', '0:00:14.073123')]</t>
+          <t>('0:00:22.460000', '0:00:33.860000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=6.26</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=22.46</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>isophonics_121</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['D', 'E', 'A']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:25.720000', '0:00:51.960000')]</t>
+          <t>('0:01:39.341337', '0:01:47.027142')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:30.050000', '0:00:41.370000')]</t>
+          <t>('0:00:21.224000', '0:00:29.739000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=25.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-121#t=99.341337</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=21.224</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db/3', 'Db:min/b3', 'Ab/b5']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:03.080000', '0:00:13.480000')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:03.300000', '0:00:05.850000')]</t>
+          <t>('0:04:03.440000', '0:04:09.260000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=3.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=3.3']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:04.080000', '0:01:11.860000')]</t>
+          <t>('0:00:55.230000', '0:01:07.670000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:10.130000', '0:00:14.450000')]</t>
+          <t>('0:00:33.100000', '0:00:43.990000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=64.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=33.1</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:09.910000', '0:00:14')]</t>
+          <t>('0:00:46.120000', '0:00:50.740000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:54.820000', '0:01:01.800000')]</t>
+          <t>('0:00:32.200000', '0:00:38.620000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=9.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=46.12</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=54.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=32.2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['C:min7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['G:min7', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:06.920000', '0:00:13.460000')]</t>
+          <t>('0:00:40.640000', '0:00:48.100000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:07.380000')]</t>
+          <t>('0:00:20.730000', '0:00:24.830000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=6.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=40.64</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=1.92']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=20.73</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C', 'G/3', 'C'], ['G:7', 'C', 'C/b7']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj'], ['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:41.655000', '0:00:46.220000'), ('0:00:34.041000', '0:00:38.588000')]</t>
+          <t>('0:00:01.540000', '0:00:03.580000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:42.900000', '0:00:45.160000'), ('0:00:18.660000', '0:00:20.740000')]</t>
+          <t>('0:00:09.620000', '0:00:14.180000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=41.655', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=34.041']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=42.9', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=18.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=9.62</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_20</t>
+          <t>isophonics_89</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj']]</t>
+          <t>['Eb', 'Ab', 'Eb']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Eb', 'F:min', 'Bb:7', 'Eb', 'F:min', 'Bb:7', 'Eb']]</t>
+          <t>['F#', 'B', 'F#']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:22.460000', '0:00:33.860000')]</t>
+          <t>('0:02:16.070000', '0:02:21.510000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:06.260000', '0:00:21.040000')]</t>
+          <t>('0:00:14.928466', '0:00:21.522933')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=22.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=6.26']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
